--- a/LF/TAS/Benin/Apr 2021/bj_lf_tas2_5_partcipants_202104.xlsx
+++ b/LF/TAS/Benin/Apr 2021/bj_lf_tas2_5_partcipants_202104.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\Apr 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A096E90-F746-4CEE-A41C-67BD72EE2580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2047EE-1302-41D4-8415-8342DC7FE2C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="390" windowWidth="28740" windowHeight="14790" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>Depuis combien d'années le participant habite-t-il dans la communauté?</t>
   </si>
   <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
-  </si>
-  <si>
     <t>The code must be a two-digit number between 9 and 100</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>p_code_id</t>
   </si>
   <si>
-    <t>Veuiller enregistrer le code d'identification unique suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic administré, y compris les tests FTS</t>
-  </si>
-  <si>
     <t>concat(${p_cluster_id}, '-', ${p_id_sequence})</t>
   </si>
   <si>
@@ -335,10 +329,16 @@
     <t>. &gt;= 4 and . &lt;= 12</t>
   </si>
   <si>
-    <t>bj_lf_tas2_5_partcipants_202104</t>
-  </si>
-  <si>
-    <t>5. Benin - TAS2 FL Formulaire Participants (Avril 2021)</t>
+    <t>Veuillez enregistrer le code d’identification suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic utilisé</t>
+  </si>
+  <si>
+    <t>Please record the following respondent identification code on a separate list and on each diagnostic test used</t>
+  </si>
+  <si>
+    <t>5. Benin - TAS2 FL Formulaire Participants (Avril 2021) V2</t>
+  </si>
+  <si>
+    <t>bj_lf_tas2_5_partcipants_202104_v2</t>
   </si>
 </sst>
 </file>
@@ -797,34 +797,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.38671875" customWidth="1"/>
-    <col min="7" max="7" width="12.609375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.38671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.609375" customWidth="1"/>
-    <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.38671875" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="36.609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.375" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -874,10 +874,10 @@
         <v>13</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -901,10 +901,10 @@
         <v>68</v>
       </c>
       <c r="I2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -914,7 +914,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -941,19 +941,19 @@
       <c r="O3" s="3"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -968,19 +968,19 @@
       <c r="O4" s="3"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -995,19 +995,19 @@
       <c r="O5" s="3"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="8"/>
@@ -1022,7 +1022,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1096,13 +1096,13 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>63</v>
@@ -1115,7 +1115,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1151,29 +1151,29 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>63</v>
@@ -1182,26 +1182,26 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F12" s="10"/>
       <c r="K12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>66</v>
@@ -1210,7 +1210,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1246,24 +1246,24 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1281,15 +1281,15 @@
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.71875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -1374,18 +1374,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.0546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1399,18 +1399,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
       </c>
       <c r="C2">
         <v>20210412</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
